--- a/bip8013_05_data.xlsx
+++ b/bip8013_05_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>X</t>
   </si>
@@ -157,13 +157,43 @@
   </si>
   <si>
     <t>20-Nov</t>
+  </si>
+  <si>
+    <t>SES</t>
+  </si>
+  <si>
+    <t>Croston</t>
+  </si>
+  <si>
+    <t>SBA</t>
+  </si>
+  <si>
+    <t>SBJ</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>Error size</t>
+  </si>
+  <si>
+    <t>RMSE variation</t>
+  </si>
+  <si>
+    <t>MAE variation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +203,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -197,17 +234,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2258,10 +2306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33:P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3191,7 +3239,7 @@
         <v>-235.58768653869629</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -3222,8 +3270,20 @@
       <c r="J33">
         <v>-116.7938432693481</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>46</v>
+      </c>
+      <c r="N33" t="s">
+        <v>47</v>
+      </c>
+      <c r="O33" t="s">
+        <v>48</v>
+      </c>
+      <c r="P33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -3254,8 +3314,23 @@
       <c r="J34">
         <v>940.60307836532593</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>50</v>
+      </c>
+      <c r="M34" s="2">
+        <v>45.345129999999997</v>
+      </c>
+      <c r="N34" s="2">
+        <v>138.559</v>
+      </c>
+      <c r="O34" s="2">
+        <v>283.00799999999998</v>
+      </c>
+      <c r="P34" s="2">
+        <v>329.14150000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -3286,8 +3361,23 @@
       <c r="J35">
         <v>-529.69846081733704</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>51</v>
+      </c>
+      <c r="M35" s="2">
+        <v>815.04297999999994</v>
+      </c>
+      <c r="N35" s="2">
+        <v>785.99310000000003</v>
+      </c>
+      <c r="O35" s="2">
+        <v>759.53250000000003</v>
+      </c>
+      <c r="P35" s="2">
+        <v>754.19240000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -3318,8 +3408,23 @@
       <c r="J36">
         <v>2735.1507695913319</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>52</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1378.39498</v>
+      </c>
+      <c r="N36" s="2">
+        <v>1357.4843000000001</v>
+      </c>
+      <c r="O36" s="2">
+        <v>1319.5591999999999</v>
+      </c>
+      <c r="P36" s="2">
+        <v>1313.6713</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -3350,8 +3455,27 @@
       <c r="J37">
         <v>-1632.424615204334</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
+        <v>53</v>
+      </c>
+      <c r="M37" s="2">
+        <f>M36-M35</f>
+        <v>563.35200000000009</v>
+      </c>
+      <c r="N37" s="2">
+        <f>N36-N35</f>
+        <v>571.49120000000005</v>
+      </c>
+      <c r="O37" s="2">
+        <f>O36-O35</f>
+        <v>560.02669999999989</v>
+      </c>
+      <c r="P37" s="2">
+        <f>P36-P35</f>
+        <v>559.47889999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>816.21230000000003</v>
       </c>
@@ -3364,8 +3488,15 @@
       <c r="F38">
         <v>661.88229640603311</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>816.21230000000003</v>
       </c>
@@ -3378,8 +3509,24 @@
       <c r="F39">
         <v>661.88229640603311</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4">
+        <f>(M36-N36)/N36</f>
+        <v>1.5403993990943362E-2</v>
+      </c>
+      <c r="O39" s="4">
+        <f>(M36-O36)/O36</f>
+        <v>4.4587450112128439E-2</v>
+      </c>
+      <c r="P39" s="4">
+        <f>(M36-P36)/P36</f>
+        <v>4.9269311128286093E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>816.21230000000003</v>
       </c>
@@ -3392,8 +3539,24 @@
       <c r="F40">
         <v>661.88229640603311</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M40" s="4">
+        <f>(N36-M36)/M36</f>
+        <v>-1.5170310617352913E-2</v>
+      </c>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4">
+        <f>(N36-O36)/O36</f>
+        <v>2.8740734026938813E-2</v>
+      </c>
+      <c r="P40" s="4">
+        <f>(N36-P36)/P36</f>
+        <v>3.3351569757214081E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>816.21230000000003</v>
       </c>
@@ -3406,8 +3569,24 @@
       <c r="F41">
         <v>661.88229640603311</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M41" s="4">
+        <f>(O36-M36)/M36</f>
+        <v>-4.268426746591903E-2</v>
+      </c>
+      <c r="N41" s="4">
+        <f>(O36-N36)/N36</f>
+        <v>-2.7937781674528504E-2</v>
+      </c>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4">
+        <f>(O36-P36)/P36</f>
+        <v>4.4820192083057193E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>816.21230000000003</v>
       </c>
@@ -3420,8 +3599,109 @@
       <c r="F42">
         <v>661.88229640603311</v>
       </c>
+      <c r="L42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M42" s="4">
+        <f>(P36-M36)/M36</f>
+        <v>-4.695582974337302E-2</v>
+      </c>
+      <c r="N42" s="4">
+        <f>(P36-N36)/N36</f>
+        <v>-3.2275143071636335E-2</v>
+      </c>
+      <c r="O42" s="4">
+        <f>(P36-O36)/O36</f>
+        <v>-4.4620203474008179E-3</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M44" s="3"/>
+      <c r="N44" s="4">
+        <f>(M35-N35)/N35</f>
+        <v>3.6959459313319565E-2</v>
+      </c>
+      <c r="O44" s="4">
+        <f>(M35-O35)/O35</f>
+        <v>7.3085062192861941E-2</v>
+      </c>
+      <c r="P44" s="4">
+        <f>(M35-P35)/P35</f>
+        <v>8.0683098901553396E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M45" s="4">
+        <f>(N35-M35)/M35</f>
+        <v>-3.564214490872606E-2</v>
+      </c>
+      <c r="N45" s="3"/>
+      <c r="O45" s="4">
+        <f>(N35-O35)/O35</f>
+        <v>3.4838008906794636E-2</v>
+      </c>
+      <c r="P45" s="4">
+        <f>(N35-P35)/P35</f>
+        <v>4.2165235290093091E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M46" s="4">
+        <f>(O35-M35)/M35</f>
+        <v>-6.8107426678283789E-2</v>
+      </c>
+      <c r="N46" s="4">
+        <f>(O35-N35)/N35</f>
+        <v>-3.3665181030215152E-2</v>
+      </c>
+      <c r="O46" s="3"/>
+      <c r="P46" s="4">
+        <f>(O35-P35)/P35</f>
+        <v>7.0805539806553432E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M47" s="4">
+        <f>(P35-M35)/M35</f>
+        <v>-7.4659351093361886E-2</v>
+      </c>
+      <c r="N47" s="4">
+        <f>(P35-N35)/N35</f>
+        <v>-4.0459261029136266E-2</v>
+      </c>
+      <c r="O47" s="4">
+        <f>(P35-O35)/O35</f>
+        <v>-7.0307722184370074E-3</v>
+      </c>
+      <c r="P47" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L38:P38"/>
+    <mergeCell ref="L43:P43"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
